--- a/biology/Botanique/Dodine/Dodine.xlsx
+++ b/biology/Botanique/Dodine/Dodine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dodine est un outil utilisé dans le processus de l'élevage du vin en tonneau, permettant de remettre en suspension les lies lors du bâtonnage. 
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui assimilable à une canne en inox, il est l'évolution du bâton en bois utilisé auparavant.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une tige permet de plonger l'outil dans le fond d'un fût, elle est terminée par une partie plus large ou une chaîne permettant de remuer les lies déposées dans le fond.
